--- a/data_year/zb/金融业/保险公司业务经济技术指标/赔款及给付.xlsx
+++ b/data_year/zb/金融业/保险公司业务经济技术指标/赔款及给付.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1368 +538,872 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>43.3</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>232.9</v>
       </c>
       <c r="D2" t="n">
-        <v>174</v>
+        <v>1109</v>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>1385</v>
       </c>
       <c r="F2" t="n">
-        <v>51</v>
+        <v>117.2</v>
       </c>
       <c r="G2" t="n">
-        <v>526</v>
+        <v>3200</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>203</v>
+        <v>1375.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>31.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.1</v>
+      </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>96</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11.5</v>
+      </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>23.8</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="T2" t="n">
-        <v>16</v>
+        <v>28.9</v>
       </c>
       <c r="U2" t="n">
-        <v>308</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>52.52</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>326.75</v>
       </c>
       <c r="D3" t="n">
-        <v>201</v>
+        <v>1300.93</v>
       </c>
       <c r="E3" t="n">
-        <v>264</v>
+        <v>1680</v>
       </c>
       <c r="F3" t="n">
-        <v>56</v>
+        <v>129.44</v>
       </c>
       <c r="G3" t="n">
-        <v>597</v>
+        <v>3929</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6.06</v>
       </c>
       <c r="I3" t="n">
-        <v>218</v>
+        <v>1750.92</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3.83</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>56.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>32.91</v>
+      </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>81.78</v>
+      </c>
+      <c r="O3" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="P3" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>11.02</v>
+      </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>27.31</v>
       </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>57.07</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>34.79</v>
       </c>
       <c r="U3" t="n">
-        <v>333</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>61.08</v>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>253.3</v>
       </c>
       <c r="D4" t="n">
-        <v>229</v>
+        <v>1505.02</v>
       </c>
       <c r="E4" t="n">
-        <v>304</v>
+        <v>1819</v>
       </c>
       <c r="F4" t="n">
-        <v>56</v>
+        <v>165.03</v>
       </c>
       <c r="G4" t="n">
-        <v>707</v>
+        <v>4716</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10.64</v>
       </c>
       <c r="I4" t="n">
-        <v>271</v>
+        <v>2247.57</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>67.56</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44.87</v>
+      </c>
       <c r="M4" t="n">
-        <v>11</v>
+        <v>0.95</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>131.34</v>
+      </c>
+      <c r="O4" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="P4" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>11.51</v>
+      </c>
       <c r="R4" t="n">
-        <v>9</v>
+        <v>30.51</v>
       </c>
       <c r="S4" t="n">
-        <v>16</v>
+        <v>75.14</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
+        <v>40.46</v>
       </c>
       <c r="U4" t="n">
-        <v>403</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.65</v>
+        <v>65.41</v>
       </c>
       <c r="C5" t="n">
-        <v>69.90000000000001</v>
+        <v>338.16</v>
       </c>
       <c r="D5" t="n">
-        <v>264.15</v>
+        <v>2253.13</v>
       </c>
       <c r="E5" t="n">
-        <v>365</v>
+        <v>2657</v>
       </c>
       <c r="F5" t="n">
-        <v>63.7661653161682</v>
+        <v>213.65</v>
       </c>
       <c r="G5" t="n">
-        <v>841</v>
+        <v>6213</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6415906049</v>
+        <v>17.2</v>
       </c>
       <c r="I5" t="n">
-        <v>328.47135176938</v>
+        <v>2719.83</v>
       </c>
       <c r="J5" t="n">
-        <v>0.63354367539607</v>
+        <v>16.52</v>
       </c>
       <c r="K5" t="n">
-        <v>8.4092366404</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>69.64</v>
+      </c>
+      <c r="L5" t="n">
+        <v>72.97</v>
+      </c>
       <c r="M5" t="n">
-        <v>14.57</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>3.452042</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+        <v>194.94</v>
+      </c>
+      <c r="O5" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>15.85</v>
+      </c>
       <c r="R5" t="n">
-        <v>10.792441143488</v>
+        <v>28.74</v>
       </c>
       <c r="S5" t="n">
-        <v>20.0229712673333</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>17.4611377532061</v>
+        <v>42.78</v>
       </c>
       <c r="U5" t="n">
-        <v>476</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>446.31</v>
       </c>
       <c r="D6" t="n">
-        <v>308</v>
+        <v>2728.43</v>
       </c>
       <c r="E6" t="n">
-        <v>422</v>
+        <v>3248</v>
       </c>
       <c r="F6" t="n">
-        <v>69</v>
+        <v>215.22</v>
       </c>
       <c r="G6" t="n">
-        <v>1004</v>
+        <v>7216</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>11.46</v>
       </c>
       <c r="I6" t="n">
-        <v>416</v>
+        <v>3026.74</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>29.05</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>57.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>124.84</v>
+      </c>
       <c r="M6" t="n">
-        <v>26</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+        <v>205.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="P6" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>12.91</v>
+      </c>
       <c r="R6" t="n">
-        <v>9</v>
+        <v>33.58</v>
       </c>
       <c r="S6" t="n">
-        <v>18</v>
+        <v>107.72</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>43.68</v>
       </c>
       <c r="U6" t="n">
-        <v>582</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>575</v>
       </c>
       <c r="D7" t="n">
-        <v>311</v>
+        <v>3565.2</v>
       </c>
       <c r="E7" t="n">
-        <v>439</v>
+        <v>4226</v>
       </c>
       <c r="F7" t="n">
-        <v>92</v>
+        <v>216.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1130</v>
+        <v>8674</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>16.8</v>
       </c>
       <c r="I7" t="n">
-        <v>483</v>
+        <v>3335.6</v>
       </c>
       <c r="J7" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>188</v>
+      </c>
+      <c r="M7" t="n">
         <v>15</v>
       </c>
-      <c r="K7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>237.1</v>
       </c>
       <c r="O7" t="n">
-        <v>13</v>
+        <v>36.6</v>
       </c>
       <c r="P7" t="n">
-        <v>16</v>
+        <v>66.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>19.1</v>
       </c>
       <c r="R7" t="n">
-        <v>10</v>
+        <v>33.4</v>
       </c>
       <c r="S7" t="n">
-        <v>18</v>
+        <v>129.3</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>46.2</v>
       </c>
       <c r="U7" t="n">
-        <v>691</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.907738</v>
+        <v>102.48</v>
       </c>
       <c r="C8" t="n">
-        <v>120.462002</v>
+        <v>764.98</v>
       </c>
       <c r="D8" t="n">
-        <v>465.406464</v>
+        <v>4601.95</v>
       </c>
       <c r="E8" t="n">
-        <v>614</v>
+        <v>5469.5</v>
       </c>
       <c r="F8" t="n">
-        <v>92.258386</v>
+        <v>266.16</v>
       </c>
       <c r="G8" t="n">
-        <v>1438</v>
+        <v>10515.68</v>
       </c>
       <c r="H8" t="n">
-        <v>3.159225</v>
+        <v>23.6</v>
       </c>
       <c r="I8" t="n">
-        <v>599.152268</v>
+        <v>3648.1</v>
       </c>
       <c r="J8" t="n">
-        <v>14.913445</v>
+        <v>65.11</v>
       </c>
       <c r="K8" t="n">
-        <v>13.126218</v>
+        <v>91.47</v>
       </c>
       <c r="L8" t="n">
-        <v>4.631799</v>
+        <v>234.63</v>
       </c>
       <c r="M8" t="n">
-        <v>0.930238</v>
+        <v>14.66</v>
       </c>
       <c r="N8" t="n">
-        <v>5.90874</v>
+        <v>299.24</v>
       </c>
       <c r="O8" t="n">
-        <v>9.256945999999999</v>
+        <v>45.35</v>
       </c>
       <c r="P8" t="n">
-        <v>23.75977</v>
+        <v>81.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.384242</v>
+        <v>17.53</v>
       </c>
       <c r="R8" t="n">
-        <v>11.787629</v>
+        <v>36.74</v>
       </c>
       <c r="S8" t="n">
-        <v>22.287739</v>
+        <v>166.23</v>
       </c>
       <c r="T8" t="n">
-        <v>20.959097</v>
+        <v>55.28</v>
       </c>
       <c r="U8" t="n">
-        <v>825</v>
+        <v>5045.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.14</v>
+        <v>122.9</v>
       </c>
       <c r="C9" t="n">
-        <v>106.87</v>
+        <v>986.5</v>
       </c>
       <c r="D9" t="n">
-        <v>1064.45</v>
+        <v>4572.6</v>
       </c>
       <c r="E9" t="n">
-        <v>1201</v>
+        <v>5683</v>
       </c>
       <c r="F9" t="n">
-        <v>100.78</v>
+        <v>225.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2265</v>
+        <v>11181</v>
       </c>
       <c r="H9" t="n">
-        <v>3.46</v>
+        <v>25.4</v>
       </c>
       <c r="I9" t="n">
-        <v>790.3200000000001</v>
+        <v>3937.9</v>
       </c>
       <c r="J9" t="n">
-        <v>8.19</v>
+        <v>77.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.42</v>
+        <v>94.7</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="M9" t="n">
-        <v>0.19</v>
+        <v>16.8</v>
       </c>
       <c r="N9" t="n">
-        <v>29.75</v>
+        <v>333.4</v>
       </c>
       <c r="O9" t="n">
-        <v>9.77</v>
+        <v>47.3</v>
       </c>
       <c r="P9" t="n">
-        <v>33.29</v>
+        <v>100.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.48</v>
+        <v>29</v>
       </c>
       <c r="R9" t="n">
-        <v>13.72</v>
+        <v>34.8</v>
       </c>
       <c r="S9" t="n">
-        <v>26.25</v>
+        <v>201.2</v>
       </c>
       <c r="T9" t="n">
-        <v>23.14</v>
+        <v>62.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1064</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.09</v>
+        <v>143.9163675884</v>
       </c>
       <c r="C10" t="n">
-        <v>146.62</v>
+        <v>1309.7846840299</v>
       </c>
       <c r="D10" t="n">
-        <v>1314.98</v>
+        <v>4388.2922028127</v>
       </c>
       <c r="E10" t="n">
-        <v>1496</v>
+        <v>5842</v>
       </c>
       <c r="F10" t="n">
-        <v>176.15</v>
+        <v>242.8963345964</v>
       </c>
       <c r="G10" t="n">
-        <v>2971</v>
+        <v>12297</v>
       </c>
       <c r="H10" t="n">
-        <v>7.36</v>
+        <v>34.6048785716</v>
       </c>
       <c r="I10" t="n">
-        <v>1046.53</v>
+        <v>4401.9366822301</v>
       </c>
       <c r="J10" t="n">
-        <v>5.13</v>
+        <v>234.5712363261</v>
       </c>
       <c r="K10" t="n">
-        <v>17.02</v>
+        <v>127.9256528892</v>
       </c>
       <c r="L10" t="n">
-        <v>28.66</v>
+        <v>434.0978411709</v>
       </c>
       <c r="M10" t="n">
-        <v>0.74</v>
+        <v>15.4416783425</v>
       </c>
       <c r="N10" t="n">
-        <v>64.14</v>
+        <v>394.3108003917</v>
       </c>
       <c r="O10" t="n">
-        <v>13.83</v>
+        <v>54.1871796045</v>
       </c>
       <c r="P10" t="n">
-        <v>28.48</v>
+        <v>123.7857695224</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.11</v>
+        <v>20.1032206011</v>
       </c>
       <c r="R10" t="n">
-        <v>13.41</v>
+        <v>38.3119437391</v>
       </c>
       <c r="S10" t="n">
-        <v>33.08</v>
+        <v>265.25323918</v>
       </c>
       <c r="T10" t="n">
-        <v>27.83</v>
+        <v>67.58295358220001</v>
       </c>
       <c r="U10" t="n">
-        <v>1475</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.7</v>
+        <v>144.029369</v>
       </c>
       <c r="C11" t="n">
-        <v>182.9</v>
+        <v>1728.077839</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.7</v>
+        <v>3742.944243</v>
       </c>
       <c r="E11" t="n">
-        <v>1487</v>
+        <v>5615.1</v>
       </c>
       <c r="F11" t="n">
-        <v>127.6</v>
+        <v>237.025812</v>
       </c>
       <c r="G11" t="n">
-        <v>3125</v>
+        <v>12893.9</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>36.666062</v>
       </c>
       <c r="I11" t="n">
-        <v>1200.7</v>
+        <v>4613.382178</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>376.710681</v>
       </c>
       <c r="K11" t="n">
-        <v>31.1</v>
+        <v>113.412643</v>
       </c>
       <c r="L11" t="n">
-        <v>34.2</v>
+        <v>623.403547</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2</v>
+        <v>42.947703</v>
       </c>
       <c r="N11" t="n">
-        <v>95.2</v>
+        <v>527.866585</v>
       </c>
       <c r="O11" t="n">
-        <v>17.2</v>
+        <v>67.55514599999999</v>
       </c>
       <c r="P11" t="n">
-        <v>28.2</v>
+        <v>153.633099</v>
       </c>
       <c r="Q11" t="n">
-        <v>9</v>
+        <v>39.465905</v>
       </c>
       <c r="R11" t="n">
-        <v>19.2</v>
+        <v>35.155142</v>
       </c>
       <c r="S11" t="n">
-        <v>38.9</v>
+        <v>341.687385</v>
       </c>
       <c r="T11" t="n">
-        <v>26.2</v>
+        <v>69.74248900000001</v>
       </c>
       <c r="U11" t="n">
-        <v>1638</v>
+        <v>7278.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.3</v>
+        <v>148.0600649932</v>
       </c>
       <c r="C12" t="n">
-        <v>232.9</v>
+        <v>2163.5112290418</v>
       </c>
       <c r="D12" t="n">
-        <v>1109</v>
+        <v>3715.1120794121</v>
       </c>
       <c r="E12" t="n">
-        <v>1385</v>
+        <v>6026.7</v>
       </c>
       <c r="F12" t="n">
-        <v>117.2</v>
+        <v>245.125135</v>
       </c>
       <c r="G12" t="n">
-        <v>3200</v>
+        <v>13907.103322661</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>33.637761</v>
       </c>
       <c r="I12" t="n">
-        <v>1375.8</v>
+        <v>4725.501833</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>559.139953</v>
       </c>
       <c r="K12" t="n">
-        <v>31.2</v>
+        <v>138.356885</v>
       </c>
       <c r="L12" t="n">
-        <v>31.1</v>
+        <v>757.652004</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2</v>
+        <v>48.662878</v>
       </c>
       <c r="N12" t="n">
-        <v>96</v>
+        <v>592.515619</v>
       </c>
       <c r="O12" t="n">
-        <v>18.6</v>
+        <v>63.264919</v>
       </c>
       <c r="P12" t="n">
-        <v>28.1</v>
+        <v>167.975269</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.5</v>
+        <v>44.951561</v>
       </c>
       <c r="R12" t="n">
-        <v>23.8</v>
+        <v>39.531458</v>
       </c>
       <c r="S12" t="n">
-        <v>44</v>
+        <v>395.111019</v>
       </c>
       <c r="T12" t="n">
-        <v>28.9</v>
+        <v>68.993656</v>
       </c>
       <c r="U12" t="n">
-        <v>1815</v>
+        <v>7880.419949</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.52</v>
+        <v>151.7000750006</v>
       </c>
       <c r="C13" t="n">
-        <v>326.75</v>
+        <v>3068.6614780625</v>
       </c>
       <c r="D13" t="n">
-        <v>1300.93</v>
+        <v>3540.3</v>
       </c>
       <c r="E13" t="n">
-        <v>1680</v>
+        <v>6760.6</v>
       </c>
       <c r="F13" t="n">
-        <v>129.44</v>
+        <v>290.6286101792</v>
       </c>
       <c r="G13" t="n">
-        <v>3929</v>
+        <v>15608.64</v>
       </c>
       <c r="H13" t="n">
-        <v>6.06</v>
+        <v>39.4233111805</v>
       </c>
       <c r="I13" t="n">
-        <v>1750.92</v>
+        <v>5343.8437271243</v>
       </c>
       <c r="J13" t="n">
-        <v>3.83</v>
+        <v>397.4374679929</v>
       </c>
       <c r="K13" t="n">
-        <v>56.83</v>
+        <v>131.2072172902</v>
       </c>
       <c r="L13" t="n">
-        <v>32.91</v>
+        <v>959.8422390436</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6899999999999999</v>
+        <v>88.4254751692</v>
       </c>
       <c r="N13" t="n">
-        <v>81.78</v>
+        <v>720.1944392207</v>
       </c>
       <c r="O13" t="n">
-        <v>27.21</v>
+        <v>81.4280640976</v>
       </c>
       <c r="P13" t="n">
-        <v>29.32</v>
+        <v>200.6870488207</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.02</v>
+        <v>21.2111292197</v>
       </c>
       <c r="R13" t="n">
-        <v>27.31</v>
+        <v>38.7347996406</v>
       </c>
       <c r="S13" t="n">
-        <v>57.07</v>
+        <v>460.3490030122</v>
       </c>
       <c r="T13" t="n">
-        <v>34.79</v>
+        <v>74.6141324475</v>
       </c>
       <c r="U13" t="n">
-        <v>2249</v>
+        <v>8848.026664433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>61.08</v>
+        <v>137.9266030254</v>
       </c>
       <c r="C14" t="n">
-        <v>253.3</v>
+        <v>2477.6638409616</v>
       </c>
       <c r="D14" t="n">
-        <v>1505.02</v>
+        <v>3791.4024725178</v>
       </c>
       <c r="E14" t="n">
-        <v>1819</v>
+        <v>6406.9898903508</v>
       </c>
       <c r="F14" t="n">
-        <v>165.03</v>
+        <v>256.8091924716</v>
       </c>
       <c r="G14" t="n">
-        <v>4716</v>
+        <v>15485.14</v>
       </c>
       <c r="H14" t="n">
-        <v>10.64</v>
+        <v>32.4778786641</v>
       </c>
       <c r="I14" t="n">
-        <v>2247.57</v>
+        <v>5138.138713171</v>
       </c>
       <c r="J14" t="n">
-        <v>9.300000000000001</v>
+        <v>512.12399495</v>
       </c>
       <c r="K14" t="n">
-        <v>67.56</v>
+        <v>105.5623746552</v>
       </c>
       <c r="L14" t="n">
-        <v>44.87</v>
+        <v>1121.8670083194</v>
       </c>
       <c r="M14" t="n">
-        <v>0.95</v>
+        <v>119.1682759462</v>
       </c>
       <c r="N14" t="n">
-        <v>131.34</v>
+        <v>868.9387048454</v>
       </c>
       <c r="O14" t="n">
-        <v>26.34</v>
+        <v>71.4078735074</v>
       </c>
       <c r="P14" t="n">
-        <v>35.72</v>
+        <v>199.3365083377</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.51</v>
+        <v>27.9085593714</v>
       </c>
       <c r="R14" t="n">
-        <v>30.51</v>
+        <v>33.8504123093</v>
       </c>
       <c r="S14" t="n">
-        <v>75.14</v>
+        <v>508.0469851201</v>
       </c>
       <c r="T14" t="n">
-        <v>40.46</v>
+        <v>82.5153110628</v>
       </c>
       <c r="U14" t="n">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>65.41</v>
-      </c>
-      <c r="C15" t="n">
-        <v>338.16</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2253.13</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2657</v>
-      </c>
-      <c r="F15" t="n">
-        <v>213.65</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6213</v>
-      </c>
-      <c r="H15" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2719.83</v>
-      </c>
-      <c r="J15" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="K15" t="n">
-        <v>69.64</v>
-      </c>
-      <c r="L15" t="n">
-        <v>72.97</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>194.94</v>
-      </c>
-      <c r="O15" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="P15" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="R15" t="n">
-        <v>28.74</v>
-      </c>
-      <c r="S15" t="n">
-        <v>89.20999999999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>42.78</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>73.20999999999999</v>
-      </c>
-      <c r="C16" t="n">
-        <v>446.31</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2728.43</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3248</v>
-      </c>
-      <c r="F16" t="n">
-        <v>215.22</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7216</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3026.74</v>
-      </c>
-      <c r="J16" t="n">
-        <v>29.05</v>
-      </c>
-      <c r="K16" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>124.84</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="N16" t="n">
-        <v>205.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>35.01</v>
-      </c>
-      <c r="P16" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="R16" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="S16" t="n">
-        <v>107.72</v>
-      </c>
-      <c r="T16" t="n">
-        <v>43.68</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>575</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3565.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4226</v>
-      </c>
-      <c r="F17" t="n">
-        <v>216.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8674</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3335.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>188</v>
-      </c>
-      <c r="M17" t="n">
-        <v>15</v>
-      </c>
-      <c r="N17" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="P17" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>4448</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>102.48</v>
-      </c>
-      <c r="C18" t="n">
-        <v>764.98</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4601.95</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5469.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>266.16</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10515.68</v>
-      </c>
-      <c r="H18" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3648.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>65.11</v>
-      </c>
-      <c r="K18" t="n">
-        <v>91.47</v>
-      </c>
-      <c r="L18" t="n">
-        <v>234.63</v>
-      </c>
-      <c r="M18" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="N18" t="n">
-        <v>299.24</v>
-      </c>
-      <c r="O18" t="n">
-        <v>45.35</v>
-      </c>
-      <c r="P18" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="R18" t="n">
-        <v>36.74</v>
-      </c>
-      <c r="S18" t="n">
-        <v>166.23</v>
-      </c>
-      <c r="T18" t="n">
-        <v>55.28</v>
-      </c>
-      <c r="U18" t="n">
-        <v>5045.6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>122.9</v>
-      </c>
-      <c r="C19" t="n">
-        <v>986.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4572.6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5683</v>
-      </c>
-      <c r="F19" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11181</v>
-      </c>
-      <c r="H19" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3937.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>309</v>
-      </c>
-      <c r="M19" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="N19" t="n">
-        <v>333.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>29</v>
-      </c>
-      <c r="R19" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="S19" t="n">
-        <v>201.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>5497</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>143.9163675884</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1309.7846840299</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4388.2922028127</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5842</v>
-      </c>
-      <c r="F20" t="n">
-        <v>242.8963345964</v>
-      </c>
-      <c r="G20" t="n">
-        <v>12297</v>
-      </c>
-      <c r="H20" t="n">
-        <v>34.6048785716</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4401.9366822301</v>
-      </c>
-      <c r="J20" t="n">
-        <v>234.5712363261</v>
-      </c>
-      <c r="K20" t="n">
-        <v>127.9256528892</v>
-      </c>
-      <c r="L20" t="n">
-        <v>434.0978411709</v>
-      </c>
-      <c r="M20" t="n">
-        <v>15.4416783425</v>
-      </c>
-      <c r="N20" t="n">
-        <v>394.3108003917</v>
-      </c>
-      <c r="O20" t="n">
-        <v>54.1871796045</v>
-      </c>
-      <c r="P20" t="n">
-        <v>123.7857695224</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>20.1032206011</v>
-      </c>
-      <c r="R20" t="n">
-        <v>38.3119437391</v>
-      </c>
-      <c r="S20" t="n">
-        <v>265.25323918</v>
-      </c>
-      <c r="T20" t="n">
-        <v>67.58295358220001</v>
-      </c>
-      <c r="U20" t="n">
-        <v>6455</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>144.029369</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1728.077839</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3742.944243</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5615.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>237.025812</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12893.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>36.666062</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4613.382178</v>
-      </c>
-      <c r="J21" t="n">
-        <v>376.710681</v>
-      </c>
-      <c r="K21" t="n">
-        <v>113.412643</v>
-      </c>
-      <c r="L21" t="n">
-        <v>623.403547</v>
-      </c>
-      <c r="M21" t="n">
-        <v>42.947703</v>
-      </c>
-      <c r="N21" t="n">
-        <v>527.866585</v>
-      </c>
-      <c r="O21" t="n">
-        <v>67.55514599999999</v>
-      </c>
-      <c r="P21" t="n">
-        <v>153.633099</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>39.465905</v>
-      </c>
-      <c r="R21" t="n">
-        <v>35.155142</v>
-      </c>
-      <c r="S21" t="n">
-        <v>341.687385</v>
-      </c>
-      <c r="T21" t="n">
-        <v>69.74248900000001</v>
-      </c>
-      <c r="U21" t="n">
-        <v>7278.7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>148.0600649932</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2163.5112290418</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3715.0155733742</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6026.5868674092</v>
-      </c>
-      <c r="F22" t="n">
-        <v>245.125135</v>
-      </c>
-      <c r="G22" t="n">
-        <v>13907.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>33.637761</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4725.501833</v>
-      </c>
-      <c r="J22" t="n">
-        <v>559.139953</v>
-      </c>
-      <c r="K22" t="n">
-        <v>138.356885</v>
-      </c>
-      <c r="L22" t="n">
-        <v>757.652004</v>
-      </c>
-      <c r="M22" t="n">
-        <v>48.662878</v>
-      </c>
-      <c r="N22" t="n">
-        <v>592.515619</v>
-      </c>
-      <c r="O22" t="n">
-        <v>63.264919</v>
-      </c>
-      <c r="P22" t="n">
-        <v>167.975269</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>44.951561</v>
-      </c>
-      <c r="R22" t="n">
-        <v>39.531458</v>
-      </c>
-      <c r="S22" t="n">
-        <v>395.111019</v>
-      </c>
-      <c r="T22" t="n">
-        <v>68.993656</v>
-      </c>
-      <c r="U22" t="n">
-        <v>7880.419949</v>
+        <v>9078.151792728801</v>
       </c>
     </row>
   </sheetData>
